--- a/data/trans_camb/P16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,01</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 7,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 0,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>269,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>361,22%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-71,81; 459,62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 447,36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; 1441,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-59,27; 574,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 1615,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 1,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 1,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,02; 520,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 196,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,71; 798,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,94; 172,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,41; 214,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,05; 385,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,29; 167,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,29; 99,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,19; 214,32</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 3,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 4,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 1,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 3,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 2,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 0,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 3,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,8%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,93; 336,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,41; 117,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,33; 446,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 295,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,04; 112,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 239,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 205,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,77; 59,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,96; 218,27</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 2,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 3,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 5,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 5,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 7,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 3,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 5,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,89%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,52; 274,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,48; 354,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,6; 489,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 137,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 193,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,69; 271,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; 120,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,42; 169,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,65; 264,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 1,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 3,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 6,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 4,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 10,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 11,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 2,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 6,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 8,01</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,59%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,54; 120,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,75; 239,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,23; 448,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,82; 98,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,61; 224,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,18; 273,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,86; 82,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,03; 195,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,01; 233,41</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 0,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 4,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 8,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 9,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 10,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 13,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 4,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 7,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,67; 10,48</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,22%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,46%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,85; 9,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,37; 89,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,8; 170,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,46; 117,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,05; 131,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,9; 163,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 69,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,87; 99,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,17; 144,87</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 1,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 4,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 3,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 4,43</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 7,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 1,82</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 2,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 5,67</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,09%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,95%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,7%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,25; 45,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 85,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,8; 247,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,14; 85,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,66; 120,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>107,04; 206,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,58; 64,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,86; 100,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>118,6; 203,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 6,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 7,34</t>
+          <t>0,19; 6,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,24</t>
+          <t>0,27; 3,93</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>269,15%</t>
+          <t>247,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>361,22%</t>
+          <t>321,08%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 1441,5</t>
+          <t>-19,15; 1340,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1615,57</t>
+          <t>-14,38; 1583,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,22 +858,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-0,02</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,42</t>
+          <t>-0,84; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,11</t>
+          <t>-1,25; 1,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,35</t>
+          <t>-0,67; 1,16</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>17,05%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,71; 798,98</t>
+          <t>-94,39; 778,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 385,81</t>
+          <t>-71,42; 320,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 214,32</t>
+          <t>-59,71; 180,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,47</t>
+          <t>-0,14; 3,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,63</t>
+          <t>0,13; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,06</t>
+          <t>0,41; 3,07</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>106,15%</t>
+          <t>105,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>89,52%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 446,38</t>
+          <t>-18,47; 455,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 239,21</t>
+          <t>0,08; 246,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,96; 218,27</t>
+          <t>14,75; 218,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,01</t>
+          <t>-1,26; 4,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,9</t>
+          <t>1,58; 7,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,76</t>
+          <t>0,22; 4,58</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>143,54%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>111,62%</t>
+          <t>102,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>122,89%</t>
+          <t>89,74%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 489,31</t>
+          <t>-41,94; 367,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,69; 271,19</t>
+          <t>28,04; 246,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,65; 264,82</t>
+          <t>8,51; 202,43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,47</t>
+          <t>1,66; 6,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,52</t>
+          <t>4,75; 11,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,01</t>
+          <t>3,88; 8,01</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>162,53%</t>
+          <t>165,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>125,76%</t>
+          <t>125,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>133,59%</t>
+          <t>133,63%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>34,23; 448,14</t>
+          <t>34,84; 455,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>55,18; 273,4</t>
+          <t>56,12; 273,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>66,01; 233,41</t>
+          <t>66,47; 234,25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,32</t>
+          <t>-5,1; 1,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,48</t>
+          <t>-1,63; 5,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,18</t>
+          <t>-0,04; 6,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,37</t>
+          <t>-2,32; 6,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,06; 10,65</t>
+          <t>3,43; 13,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,31; 13,54</t>
+          <t>-6,95; 8,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,8</t>
+          <t>-2,44; 3,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,06</t>
+          <t>1,83; 8,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,48</t>
+          <t>-3,45; 6,43</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-35,39%</t>
+          <t>-35,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>102,22%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>54,86%</t>
+          <t>74,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 9,67</t>
+          <t>-76,92; 48,02</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 89,85</t>
+          <t>-26,28; 163,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,8; 170,15</t>
+          <t>-1,61; 199,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,46; 117,2</t>
+          <t>-20,64; 99,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>26,05; 131,12</t>
+          <t>29,54; 184,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,9; 163,1</t>
+          <t>-57,23; 94,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,39; 69,36</t>
+          <t>-28,6; 55,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,87; 99,13</t>
+          <t>22,39; 142,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,17; 144,87</t>
+          <t>-36,27; 100,56</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>13,36</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,76</t>
+          <t>-7,71; 1,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,4</t>
+          <t>-4,32; 5,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,11</t>
+          <t>2,73; 12,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,18</t>
+          <t>3,56; 13,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,43</t>
+          <t>-0,52; 10,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,54</t>
+          <t>12,5; 21,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,82</t>
+          <t>0,35; 7,74</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,81</t>
+          <t>-0,49; 7,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,67</t>
+          <t>9,92; 16,6</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>164,09%</t>
+          <t>100,3%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>150,95%</t>
+          <t>164,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>158,7%</t>
+          <t>141,73%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-70,46; 35,16</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-41,41; 111,57</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>23,81; 246,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 182,09</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 133,99</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>90,1; 282,01</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 106,34</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 96,84</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>80,93; 222,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 0,76</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 1,4</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 3,79</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,18</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 4,43</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,07</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 1,82</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 2,81</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 5,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>33,81%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>144,77%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>51,08%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>80,6%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>136,4%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>66,3%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>140,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-31,25; 45,28</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-2,85; 85,92</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>97,8; 247,89</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>70,26; 226,16</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>21,14; 85,54</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>49,66; 120,93</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>107,04; 206,83</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>87,58; 190,86</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>13,58; 64,33</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>40,86; 100,99</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>118,6; 203,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>98,22; 185,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Edad-trans_camb.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,2</t>
+          <t>0,0; 5,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,78</t>
+          <t>-1,03; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,74</t>
+          <t>-1,31; 1,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,79</t>
+          <t>0,33; 6,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,02</t>
+          <t>-0,48; 0,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,88</t>
+          <t>-0,58; 0,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,93</t>
+          <t>0,3; 4,09</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 459,62</t>
+          <t>-71,38; 390,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 447,36</t>
+          <t>-81,89; 400,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 1340,82</t>
+          <t>-19,53; 1282,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,27; 574,51</t>
+          <t>-65,76; 505,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 1583,49</t>
+          <t>-6,2; 1557,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,51</t>
+          <t>-0,7; 1,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,36</t>
+          <t>-1,13; 0,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,4</t>
+          <t>-0,91; 1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,99</t>
+          <t>-1,48; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,17</t>
+          <t>-1,33; 1,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,74</t>
+          <t>-1,08; 1,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,9</t>
+          <t>-0,79; 0,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,51</t>
+          <t>-0,96; 0,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,16</t>
+          <t>-0,62; 1,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,02; 520,31</t>
+          <t>-81,55; 477,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 196,88</t>
+          <t>-100,0; 356,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,39; 778,9</t>
+          <t>-95,33; 457,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,94; 172,81</t>
+          <t>-91,25; 194,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,41; 214,99</t>
+          <t>-73,14; 227,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,42; 320,49</t>
+          <t>-70,63; 298,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 167,58</t>
+          <t>-65,36; 158,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,29; 99,59</t>
+          <t>-71,83; 96,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 180,23</t>
+          <t>-55,65; 212,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,68</t>
+          <t>-0,64; 2,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,69</t>
+          <t>-1,74; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,4</t>
+          <t>-0,11; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 4,02</t>
+          <t>0,33; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,57</t>
+          <t>-1,71; 1,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,72</t>
+          <t>0,06; 3,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,8</t>
+          <t>0,31; 2,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,76</t>
+          <t>-1,22; 0,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,07</t>
+          <t>0,33; 3,04</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 336,94</t>
+          <t>-38,51; 384,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,41; 117,86</t>
+          <t>-86,51; 103,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 455,44</t>
+          <t>-15,63; 419,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 295,6</t>
+          <t>5,13; 264,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 112,19</t>
+          <t>-55,18; 94,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 246,79</t>
+          <t>-3,02; 232,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 205,72</t>
+          <t>12,41; 205,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,77; 59,18</t>
+          <t>-53,42; 63,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,75; 218,92</t>
+          <t>13,31; 224,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,4</t>
+          <t>-1,22; 2,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,15</t>
+          <t>-0,96; 2,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,12</t>
+          <t>-1,05; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,0</t>
+          <t>-1,17; 4,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,56</t>
+          <t>0,17; 5,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,14</t>
+          <t>1,45; 6,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,58</t>
+          <t>-0,47; 2,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,65</t>
+          <t>0,54; 3,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,58</t>
+          <t>0,05; 4,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 274,48</t>
+          <t>-51,7; 235,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 354,4</t>
+          <t>-41,1; 258,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 367,16</t>
+          <t>-34,45; 357,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 137,46</t>
+          <t>-24,81; 136,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 193,62</t>
+          <t>1,27; 183,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,04; 246,7</t>
+          <t>27,53; 240,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 120,41</t>
+          <t>-14,49; 112,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,42; 169,9</t>
+          <t>14,25; 164,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,51; 202,43</t>
+          <t>5,85; 196,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,64</t>
+          <t>-2,36; 1,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,72</t>
+          <t>-1,2; 3,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,54</t>
+          <t>1,54; 6,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,46</t>
+          <t>-2,22; 4,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,85</t>
+          <t>2,79; 10,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,46</t>
+          <t>4,94; 11,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,73</t>
+          <t>-1,57; 2,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,59</t>
+          <t>1,63; 6,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,01</t>
+          <t>3,92; 8,24</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,54; 120,44</t>
+          <t>-66,03; 138,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 239,4</t>
+          <t>-39,33; 236,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>34,84; 455,54</t>
+          <t>33,9; 494,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 98,63</t>
+          <t>-28,16; 101,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,61; 224,78</t>
+          <t>33,55; 230,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>56,12; 273,24</t>
+          <t>57,8; 267,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 82,07</t>
+          <t>-29,95; 77,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>29,03; 195,88</t>
+          <t>26,38; 181,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>66,47; 234,25</t>
+          <t>68,16; 252,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,4</t>
+          <t>-4,83; 1,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,77</t>
+          <t>-1,36; 5,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,65</t>
+          <t>0,23; 6,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,94</t>
+          <t>-1,63; 7,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,01</t>
+          <t>3,9; 13,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,01</t>
+          <t>-5,64; 8,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,35</t>
+          <t>-2,83; 3,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,34</t>
+          <t>2,44; 8,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 6,43</t>
+          <t>-2,84; 6,24</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,92; 48,02</t>
+          <t>-72,76; 65,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 163,17</t>
+          <t>-22,3; 158,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 199,71</t>
+          <t>1,25; 203,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 99,12</t>
+          <t>-15,5; 107,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>29,54; 184,63</t>
+          <t>34,2; 196,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 94,92</t>
+          <t>-54,17; 101,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 55,26</t>
+          <t>-32,64; 52,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,39; 142,84</t>
+          <t>27,02; 151,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 100,56</t>
+          <t>-29,29; 95,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,3</t>
+          <t>-7,66; 1,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,63</t>
+          <t>-4,23; 5,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,79</t>
+          <t>3,34; 12,66</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,56; 13,94</t>
+          <t>3,06; 14,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 10,5</t>
+          <t>0,32; 10,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,26</t>
+          <t>12,43; 21,62</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,74</t>
+          <t>0,24; 8,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,27</t>
+          <t>-0,15; 7,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,6</t>
+          <t>9,79; 16,78</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-70,46; 35,16</t>
+          <t>-69,49; 27,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 111,57</t>
+          <t>-41,17; 88,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>23,81; 246,73</t>
+          <t>26,73; 235,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>24,11; 182,09</t>
+          <t>24,08; 179,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 133,99</t>
+          <t>2,17; 133,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>90,1; 282,01</t>
+          <t>88,38; 291,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,21; 106,34</t>
+          <t>0,94; 100,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 96,84</t>
+          <t>-1,3; 94,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>80,93; 222,74</t>
+          <t>80,08; 231,31</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,76</t>
+          <t>-0,62; 0,78</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,4</t>
+          <t>-0,02; 1,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,79</t>
+          <t>1,68; 3,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,18</t>
+          <t>1,11; 3,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,43</t>
+          <t>2,12; 4,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,07</t>
+          <t>3,98; 7,04</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,82</t>
+          <t>0,46; 1,78</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,81</t>
+          <t>1,36; 2,83</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,15</t>
+          <t>3,23; 5,13</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 45,28</t>
+          <t>-27,38; 44,9</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 85,92</t>
+          <t>-0,84; 86,63</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>70,26; 226,16</t>
+          <t>79,08; 229,36</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>21,14; 85,54</t>
+          <t>23,92; 85,08</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>49,66; 120,93</t>
+          <t>45,74; 117,74</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>87,58; 190,86</t>
+          <t>89,77; 192,54</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,58; 64,33</t>
+          <t>13,93; 65,96</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>40,86; 100,99</t>
+          <t>40,08; 100,38</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>98,22; 185,91</t>
+          <t>99,65; 185,41</t>
         </is>
       </c>
     </row>
